--- a/data/summary_22062110.xlsx
+++ b/data/summary_22062110.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,40 +360,45 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Ponto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Tair_m</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Presurre_m</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Taxa_Linear</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Taxa_quad</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FCO2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FO2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ts</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ms</t>
         </is>
@@ -401,44 +406,50 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>23.71212121212121</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>956.9545454545455</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5.434224230262132e-017</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>23.1</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>23.93956043956044</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>957</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.04202580645161291</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.06650967741935483</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.141936038453899</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.0002595443663534321</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>23.3</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0</v>
       </c>
     </row>
